--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed1/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.558</v>
+        <v>-12.672</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.366</v>
+        <v>-12.239</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -533,7 +533,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.692</v>
+        <v>-12.89</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.338</v>
+        <v>-12.822</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -659,7 +659,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.856</v>
+        <v>-13.093</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.12</v>
+        <v>-12.13</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.016</v>
+        <v>-12.725</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.88</v>
+        <v>-12.766</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.024</v>
+        <v>-12.129</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -855,7 +855,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.15</v>
+        <v>-12.202</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.15</v>
+        <v>-12.628</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -995,7 +995,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.212</v>
+        <v>-12.446</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.484</v>
+        <v>-13.654</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.368</v>
+        <v>-11.296</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.546</v>
+        <v>-11.382</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.97</v>
+        <v>-13.818</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.296</v>
+        <v>-12.803</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1303,7 +1303,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.95</v>
+        <v>-13.211</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.766</v>
+        <v>-11.713</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.796</v>
+        <v>-12.298</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1471,7 +1471,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.372</v>
+        <v>-11.982</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1513,7 +1513,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.796</v>
+        <v>-12.596</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.574</v>
+        <v>-10.753</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.958</v>
+        <v>-12.221</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
